--- a/data/pca/factorExposure/factorExposure_2009-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01667818570840801</v>
+        <v>0.0165381991359338</v>
       </c>
       <c r="C2">
-        <v>0.001261237180973926</v>
+        <v>0.0007866297471468519</v>
       </c>
       <c r="D2">
-        <v>0.007827043019808515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00912500406092596</v>
+      </c>
+      <c r="E2">
+        <v>0.001111430856484005</v>
+      </c>
+      <c r="F2">
+        <v>-0.01458517602988208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09081592019949151</v>
+        <v>0.09145464709638824</v>
       </c>
       <c r="C4">
-        <v>0.01974614775766607</v>
+        <v>0.01439726784710256</v>
       </c>
       <c r="D4">
-        <v>0.07312368201923718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08312928903516936</v>
+      </c>
+      <c r="E4">
+        <v>0.02783522160399261</v>
+      </c>
+      <c r="F4">
+        <v>0.03085934945743093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1514207822557473</v>
+        <v>0.1611570194858566</v>
       </c>
       <c r="C6">
-        <v>0.0286045915968498</v>
+        <v>0.02768459568111858</v>
       </c>
       <c r="D6">
-        <v>-0.03020727712292803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0256818936038873</v>
+      </c>
+      <c r="E6">
+        <v>0.009143714223390956</v>
+      </c>
+      <c r="F6">
+        <v>0.04135683962586415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06186115711591101</v>
+        <v>0.06268930696169245</v>
       </c>
       <c r="C7">
-        <v>0.002313790190206051</v>
+        <v>-0.001669436620647296</v>
       </c>
       <c r="D7">
-        <v>0.04370943165559298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05234748297702509</v>
+      </c>
+      <c r="E7">
+        <v>0.01223635960156562</v>
+      </c>
+      <c r="F7">
+        <v>0.04673514591630796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06249916093635502</v>
+        <v>0.0580518714150196</v>
       </c>
       <c r="C8">
-        <v>-0.01077310980987551</v>
+        <v>-0.01271706616170103</v>
       </c>
       <c r="D8">
-        <v>0.02749736477712785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03143690958789419</v>
+      </c>
+      <c r="E8">
+        <v>0.01722381883704809</v>
+      </c>
+      <c r="F8">
+        <v>-0.02515064415223198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07079273362205288</v>
+        <v>0.0705377760777276</v>
       </c>
       <c r="C9">
-        <v>0.01646000973527353</v>
+        <v>0.01026119944624867</v>
       </c>
       <c r="D9">
-        <v>0.07327285456952934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0864390938716387</v>
+      </c>
+      <c r="E9">
+        <v>0.0240007528440507</v>
+      </c>
+      <c r="F9">
+        <v>0.04699394656321877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08578720608821327</v>
+        <v>0.08934306716983589</v>
       </c>
       <c r="C10">
-        <v>0.01390348020505915</v>
+        <v>0.02113880873240618</v>
       </c>
       <c r="D10">
-        <v>-0.1654582605749747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1606424363480324</v>
+      </c>
+      <c r="E10">
+        <v>-0.03126521995310131</v>
+      </c>
+      <c r="F10">
+        <v>-0.05748998368330115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09104500424251954</v>
+        <v>0.08769087938800896</v>
       </c>
       <c r="C11">
-        <v>0.01746636956835339</v>
+        <v>0.01096997162628457</v>
       </c>
       <c r="D11">
-        <v>0.1038128033702407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175823354777099</v>
+      </c>
+      <c r="E11">
+        <v>0.04665500338329351</v>
+      </c>
+      <c r="F11">
+        <v>0.02266611070007181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09655271560601489</v>
+        <v>0.09065815840071538</v>
       </c>
       <c r="C12">
-        <v>0.01525704570936813</v>
+        <v>0.008167983907956079</v>
       </c>
       <c r="D12">
-        <v>0.1068039502165333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321133930007017</v>
+      </c>
+      <c r="E12">
+        <v>0.04549103070913389</v>
+      </c>
+      <c r="F12">
+        <v>0.0317767295915471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0438830856738473</v>
+        <v>0.04324958899970763</v>
       </c>
       <c r="C13">
-        <v>0.005704720190106536</v>
+        <v>0.002300118345661449</v>
       </c>
       <c r="D13">
-        <v>0.03353419708400077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05327098457342699</v>
+      </c>
+      <c r="E13">
+        <v>-0.001140338293811579</v>
+      </c>
+      <c r="F13">
+        <v>0.001165342698465622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01865389325843859</v>
+        <v>0.02314723329612028</v>
       </c>
       <c r="C14">
-        <v>0.01487771120284898</v>
+        <v>0.01371035282904489</v>
       </c>
       <c r="D14">
-        <v>0.02661131985539391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03297371610610814</v>
+      </c>
+      <c r="E14">
+        <v>0.01786346411110232</v>
+      </c>
+      <c r="F14">
+        <v>0.01201242548480855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03352114158684871</v>
+        <v>0.03315181329540205</v>
       </c>
       <c r="C15">
-        <v>0.007399790933646454</v>
+        <v>0.005112305752417209</v>
       </c>
       <c r="D15">
-        <v>0.03851617206229043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04628080548268131</v>
+      </c>
+      <c r="E15">
+        <v>0.007011088530803531</v>
+      </c>
+      <c r="F15">
+        <v>0.02782979628538015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07563709438285794</v>
+        <v>0.07301419076327247</v>
       </c>
       <c r="C16">
-        <v>0.00803588431275329</v>
+        <v>0.00135207990582497</v>
       </c>
       <c r="D16">
-        <v>0.105859587351225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284196141189212</v>
+      </c>
+      <c r="E16">
+        <v>0.06100893431641632</v>
+      </c>
+      <c r="F16">
+        <v>0.02673670564057889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004720064340654634</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002184870167841294</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001411816161211418</v>
+      </c>
+      <c r="E17">
+        <v>0.001207984032796502</v>
+      </c>
+      <c r="F17">
+        <v>-0.002486111018433873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0181198977742426</v>
+        <v>0.03898750277153868</v>
       </c>
       <c r="C18">
-        <v>-0.003153801284932319</v>
+        <v>-0.002886560960060892</v>
       </c>
       <c r="D18">
-        <v>0.02729664465104665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01548816827948123</v>
+      </c>
+      <c r="E18">
+        <v>-0.00728242485887984</v>
+      </c>
+      <c r="F18">
+        <v>-0.009252335345258725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0640505707127955</v>
+        <v>0.06263977155910853</v>
       </c>
       <c r="C20">
-        <v>0.005837931814120095</v>
+        <v>0.0007313456769614125</v>
       </c>
       <c r="D20">
-        <v>0.06371303421167032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07869328704609728</v>
+      </c>
+      <c r="E20">
+        <v>0.05646414806911497</v>
+      </c>
+      <c r="F20">
+        <v>0.03008888667176564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03841280890445493</v>
+        <v>0.04113046228219554</v>
       </c>
       <c r="C21">
-        <v>0.009572306786040517</v>
+        <v>0.00652624787427978</v>
       </c>
       <c r="D21">
-        <v>0.03599045973702733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03804262383488462</v>
+      </c>
+      <c r="E21">
+        <v>-0.001310755583674699</v>
+      </c>
+      <c r="F21">
+        <v>-0.0230327542798174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0421613645808605</v>
+        <v>0.04489401529758556</v>
       </c>
       <c r="C22">
-        <v>0.001837430729628446</v>
+        <v>0.001319310966378259</v>
       </c>
       <c r="D22">
-        <v>-0.003715287380326946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007630464762906341</v>
+      </c>
+      <c r="E22">
+        <v>0.03998388655331955</v>
+      </c>
+      <c r="F22">
+        <v>-0.03730340876647536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04212424947581036</v>
+        <v>0.04486990874248777</v>
       </c>
       <c r="C23">
-        <v>0.001827140662058672</v>
+        <v>0.001310516971995157</v>
       </c>
       <c r="D23">
-        <v>-0.003691877117012255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007645265295412984</v>
+      </c>
+      <c r="E23">
+        <v>0.04016629787490206</v>
+      </c>
+      <c r="F23">
+        <v>-0.03726501953167892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08225678103856851</v>
+        <v>0.07896398704478631</v>
       </c>
       <c r="C24">
-        <v>0.008309217708928996</v>
+        <v>0.002009204400904636</v>
       </c>
       <c r="D24">
-        <v>0.1091211364957917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207172332618721</v>
+      </c>
+      <c r="E24">
+        <v>0.04856246733849993</v>
+      </c>
+      <c r="F24">
+        <v>0.02936547672237859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08761424860841506</v>
+        <v>0.08397945579058352</v>
       </c>
       <c r="C25">
-        <v>0.01095117527022863</v>
+        <v>0.004690984904374829</v>
       </c>
       <c r="D25">
-        <v>0.09496687928106343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109854232249446</v>
+      </c>
+      <c r="E25">
+        <v>0.03176890209532254</v>
+      </c>
+      <c r="F25">
+        <v>0.02615654425135478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05801156613589652</v>
+        <v>0.05945812559149631</v>
       </c>
       <c r="C26">
-        <v>0.01757903891084031</v>
+        <v>0.01467540656397337</v>
       </c>
       <c r="D26">
-        <v>0.02487824904840481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04272938629514723</v>
+      </c>
+      <c r="E26">
+        <v>0.02977882277374786</v>
+      </c>
+      <c r="F26">
+        <v>-0.006657064160050821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1334639612737424</v>
+        <v>0.1421608851785663</v>
       </c>
       <c r="C28">
-        <v>0.01291991649163888</v>
+        <v>0.02259748193701401</v>
       </c>
       <c r="D28">
-        <v>-0.2710716366576092</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609835109913859</v>
+      </c>
+      <c r="E28">
+        <v>-0.06853544965813138</v>
+      </c>
+      <c r="F28">
+        <v>0.003088639283729959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02537025994350155</v>
+        <v>0.02853199243896833</v>
       </c>
       <c r="C29">
-        <v>0.009623217316462542</v>
+        <v>0.00886828984246486</v>
       </c>
       <c r="D29">
-        <v>0.02495875986539032</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03090293786544794</v>
+      </c>
+      <c r="E29">
+        <v>0.01309996924807184</v>
+      </c>
+      <c r="F29">
+        <v>-0.01376208876266198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06369854379774777</v>
+        <v>0.05849825123112169</v>
       </c>
       <c r="C30">
-        <v>0.00974588764550832</v>
+        <v>0.002828734002474422</v>
       </c>
       <c r="D30">
-        <v>0.06892044914302843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08733146922010022</v>
+      </c>
+      <c r="E30">
+        <v>0.01206060173625213</v>
+      </c>
+      <c r="F30">
+        <v>0.08008795025592937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05051313171053598</v>
+        <v>0.05086908871647255</v>
       </c>
       <c r="C31">
-        <v>0.01706954320114576</v>
+        <v>0.01599178904347931</v>
       </c>
       <c r="D31">
-        <v>0.02206426377403403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02469786760062233</v>
+      </c>
+      <c r="E31">
+        <v>0.02869964685668862</v>
+      </c>
+      <c r="F31">
+        <v>-0.001675687195520344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04614263320669151</v>
+        <v>0.05100280912312583</v>
       </c>
       <c r="C32">
-        <v>0.002039436041014919</v>
+        <v>-0.001622565401833156</v>
       </c>
       <c r="D32">
-        <v>0.02242798849423103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03529008315828044</v>
+      </c>
+      <c r="E32">
+        <v>0.03356171898797111</v>
+      </c>
+      <c r="F32">
+        <v>0.001911218932422852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09138493758040532</v>
+        <v>0.08868111602238819</v>
       </c>
       <c r="C33">
-        <v>0.0138248585018322</v>
+        <v>0.006873358162103174</v>
       </c>
       <c r="D33">
-        <v>0.08277493936002243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031590146521318</v>
+      </c>
+      <c r="E33">
+        <v>0.0460420993866935</v>
+      </c>
+      <c r="F33">
+        <v>0.04078896080329533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06908496244170104</v>
+        <v>0.06745414005392061</v>
       </c>
       <c r="C34">
-        <v>0.01563324565536127</v>
+        <v>0.01024236616155372</v>
       </c>
       <c r="D34">
-        <v>0.0903571460984115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093142917397926</v>
+      </c>
+      <c r="E34">
+        <v>0.03476832804487856</v>
+      </c>
+      <c r="F34">
+        <v>0.03264171368912956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02423289115100867</v>
+        <v>0.02617561532119729</v>
       </c>
       <c r="C35">
-        <v>0.003092374816055956</v>
+        <v>0.002913303419770884</v>
       </c>
       <c r="D35">
-        <v>0.006494620486236887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01194788716943287</v>
+      </c>
+      <c r="E35">
+        <v>0.01241128232447238</v>
+      </c>
+      <c r="F35">
+        <v>0.000730450317537853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02601371669521124</v>
+        <v>0.02766016324874305</v>
       </c>
       <c r="C36">
-        <v>0.007753740410819296</v>
+        <v>0.006929717065542474</v>
       </c>
       <c r="D36">
-        <v>0.03916722546226939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03904719782382098</v>
+      </c>
+      <c r="E36">
+        <v>0.01638265010678561</v>
+      </c>
+      <c r="F36">
+        <v>0.01502973652498746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0005676954103653251</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006899038232399065</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002191627177716841</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002005815422611321</v>
+      </c>
+      <c r="F37">
+        <v>-0.002531264348599614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1139192790394847</v>
+        <v>0.1026933841766515</v>
       </c>
       <c r="C39">
-        <v>0.02391951205495555</v>
+        <v>0.01602685193316955</v>
       </c>
       <c r="D39">
-        <v>0.1445005834437608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1524720356980553</v>
+      </c>
+      <c r="E39">
+        <v>0.05742780447871158</v>
+      </c>
+      <c r="F39">
+        <v>0.03005156024135688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03827120672450569</v>
+        <v>0.04296965239919864</v>
       </c>
       <c r="C40">
-        <v>0.009268934194136167</v>
+        <v>0.007567188979726708</v>
       </c>
       <c r="D40">
-        <v>0.01712983147319926</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03173627402584737</v>
+      </c>
+      <c r="E40">
+        <v>0.002563290978539218</v>
+      </c>
+      <c r="F40">
+        <v>-0.01857522290966485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02577731795902292</v>
+        <v>0.02804925586839926</v>
       </c>
       <c r="C41">
-        <v>0.007363786032055247</v>
+        <v>0.006883939296466922</v>
       </c>
       <c r="D41">
-        <v>0.007856297334204333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01065337766206995</v>
+      </c>
+      <c r="E41">
+        <v>0.01221882119710589</v>
+      </c>
+      <c r="F41">
+        <v>-0.00567884102342177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04237373638096469</v>
+        <v>0.04062099547351322</v>
       </c>
       <c r="C43">
-        <v>0.008303682887658578</v>
+        <v>0.00749159323917573</v>
       </c>
       <c r="D43">
-        <v>0.01521225776505123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0190841600223698</v>
+      </c>
+      <c r="E43">
+        <v>0.0253659034361633</v>
+      </c>
+      <c r="F43">
+        <v>-0.0135209408538238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07050616670888667</v>
+        <v>0.07886506267241036</v>
       </c>
       <c r="C44">
-        <v>0.02556624356610081</v>
+        <v>0.01941827604817737</v>
       </c>
       <c r="D44">
-        <v>0.08972249530538767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09619419132010638</v>
+      </c>
+      <c r="E44">
+        <v>0.05999722684351246</v>
+      </c>
+      <c r="F44">
+        <v>0.1617790949723379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02195500569592949</v>
+        <v>0.02447989869813172</v>
       </c>
       <c r="C46">
-        <v>0.004058461130084128</v>
+        <v>0.003595574054254271</v>
       </c>
       <c r="D46">
-        <v>0.006220703493593686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0129171439588801</v>
+      </c>
+      <c r="E46">
+        <v>0.02723547439214622</v>
+      </c>
+      <c r="F46">
+        <v>-0.00645121197145369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05271096914734587</v>
+        <v>0.05277963490603176</v>
       </c>
       <c r="C47">
-        <v>0.004760491674246775</v>
+        <v>0.004034583907947429</v>
       </c>
       <c r="D47">
-        <v>0.008471297738977944</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01086372225279501</v>
+      </c>
+      <c r="E47">
+        <v>0.02322934217720207</v>
+      </c>
+      <c r="F47">
+        <v>-0.03226604847156785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04812084515573758</v>
+        <v>0.05030510396587066</v>
       </c>
       <c r="C48">
-        <v>0.004746272809239308</v>
+        <v>0.002132560877682836</v>
       </c>
       <c r="D48">
-        <v>0.04442570687192245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04958513182912914</v>
+      </c>
+      <c r="E48">
+        <v>-0.005042969167977243</v>
+      </c>
+      <c r="F48">
+        <v>0.008548962437399707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2025690891156884</v>
+        <v>0.200083211329653</v>
       </c>
       <c r="C49">
-        <v>0.02215095227041388</v>
+        <v>0.01949634403813467</v>
       </c>
       <c r="D49">
-        <v>-0.01567363542548045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005352751203688578</v>
+      </c>
+      <c r="E49">
+        <v>0.03129403886996846</v>
+      </c>
+      <c r="F49">
+        <v>0.0428499481308871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04939025703654953</v>
+        <v>0.05108655047382039</v>
       </c>
       <c r="C50">
-        <v>0.01315466205069455</v>
+        <v>0.01175241512832487</v>
       </c>
       <c r="D50">
-        <v>0.02218054952512109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02307016047715392</v>
+      </c>
+      <c r="E50">
+        <v>0.02952304900804931</v>
+      </c>
+      <c r="F50">
+        <v>0.009710465755247559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1557998763675305</v>
+        <v>0.1493015784388779</v>
       </c>
       <c r="C52">
-        <v>0.02026315997134885</v>
+        <v>0.01850625833587692</v>
       </c>
       <c r="D52">
-        <v>0.04950502533632095</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04208455802986515</v>
+      </c>
+      <c r="E52">
+        <v>0.02160563027612828</v>
+      </c>
+      <c r="F52">
+        <v>0.04341533640705368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1735203713321334</v>
+        <v>0.1699190714600394</v>
       </c>
       <c r="C53">
-        <v>0.02038232547183333</v>
+        <v>0.02097583031983678</v>
       </c>
       <c r="D53">
-        <v>0.01305026025337888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005726069554392896</v>
+      </c>
+      <c r="E53">
+        <v>0.02883376816178645</v>
+      </c>
+      <c r="F53">
+        <v>0.07367518508573127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01725970321609145</v>
+        <v>0.02022007618356726</v>
       </c>
       <c r="C54">
-        <v>0.01225931898295046</v>
+        <v>0.01104576161778616</v>
       </c>
       <c r="D54">
-        <v>0.02763961147028276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03379417060311658</v>
+      </c>
+      <c r="E54">
+        <v>0.02167847544958045</v>
+      </c>
+      <c r="F54">
+        <v>-0.002032688987888664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169650112785109</v>
+        <v>0.1158795557172341</v>
       </c>
       <c r="C55">
-        <v>0.01832896505252371</v>
+        <v>0.01859439625803427</v>
       </c>
       <c r="D55">
-        <v>0.01114366464797346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008377412185054332</v>
+      </c>
+      <c r="E55">
+        <v>0.0256182218053046</v>
+      </c>
+      <c r="F55">
+        <v>0.04650289404511145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1801986214106848</v>
+        <v>0.1763205461115993</v>
       </c>
       <c r="C56">
-        <v>0.01825508715845996</v>
+        <v>0.01905511003665871</v>
       </c>
       <c r="D56">
-        <v>0.006252132179756864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002395748197899107</v>
+      </c>
+      <c r="E56">
+        <v>0.03230470871103414</v>
+      </c>
+      <c r="F56">
+        <v>0.05291645568337167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04851266787934492</v>
+        <v>0.04552623453801328</v>
       </c>
       <c r="C58">
-        <v>0.005786336934103317</v>
+        <v>-0.0004484261156947963</v>
       </c>
       <c r="D58">
-        <v>0.05822021765252299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0740408531962157</v>
+      </c>
+      <c r="E58">
+        <v>0.03573550455334161</v>
+      </c>
+      <c r="F58">
+        <v>-0.03619779548701402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1640984516879346</v>
+        <v>0.1669583522521602</v>
       </c>
       <c r="C59">
-        <v>0.01470009815168175</v>
+        <v>0.02298132004614382</v>
       </c>
       <c r="D59">
-        <v>-0.2269491005543597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185433376664389</v>
+      </c>
+      <c r="E59">
+        <v>-0.04859105533023533</v>
+      </c>
+      <c r="F59">
+        <v>-0.03555383250663743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2375519256316239</v>
+        <v>0.230925740411793</v>
       </c>
       <c r="C60">
-        <v>0.002091698788992255</v>
+        <v>-0.0009842930080997123</v>
       </c>
       <c r="D60">
-        <v>0.04223748500790307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0402120766796663</v>
+      </c>
+      <c r="E60">
+        <v>0.006792519163778553</v>
+      </c>
+      <c r="F60">
+        <v>-0.0002877433836660069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08498217314251721</v>
+        <v>0.07817370089430126</v>
       </c>
       <c r="C61">
-        <v>0.01747656779946611</v>
+        <v>0.01141685594496981</v>
       </c>
       <c r="D61">
-        <v>0.1033666849908474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170659181040486</v>
+      </c>
+      <c r="E61">
+        <v>0.03747547411288312</v>
+      </c>
+      <c r="F61">
+        <v>0.01186301315860929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1707534908854009</v>
+        <v>0.1685915468825835</v>
       </c>
       <c r="C62">
-        <v>0.02170525225046615</v>
+        <v>0.02155314551701058</v>
       </c>
       <c r="D62">
-        <v>0.007737805991310253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00513865769279488</v>
+      </c>
+      <c r="E62">
+        <v>0.03252915388117439</v>
+      </c>
+      <c r="F62">
+        <v>0.038165148179676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04264574895566178</v>
+        <v>0.04611176863984197</v>
       </c>
       <c r="C63">
-        <v>0.005751948939701873</v>
+        <v>0.001837334624120524</v>
       </c>
       <c r="D63">
-        <v>0.04597293912291631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05974907906766304</v>
+      </c>
+      <c r="E63">
+        <v>0.02479788326469864</v>
+      </c>
+      <c r="F63">
+        <v>0.003174355635111099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.112818437063503</v>
+        <v>0.1110198280492703</v>
       </c>
       <c r="C64">
-        <v>0.0155127378709371</v>
+        <v>0.01209786121854674</v>
       </c>
       <c r="D64">
-        <v>0.03262526117671476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04323425007336639</v>
+      </c>
+      <c r="E64">
+        <v>0.02252916152401702</v>
+      </c>
+      <c r="F64">
+        <v>0.02621521211144356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1427720849866791</v>
+        <v>0.1523287807230336</v>
       </c>
       <c r="C65">
-        <v>0.03463428804078272</v>
+        <v>0.03480840956110452</v>
       </c>
       <c r="D65">
-        <v>-0.05647186829668516</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04601566969608024</v>
+      </c>
+      <c r="E65">
+        <v>0.005020205128126188</v>
+      </c>
+      <c r="F65">
+        <v>0.03606364983019751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1370864564951988</v>
+        <v>0.122971354145863</v>
       </c>
       <c r="C66">
-        <v>0.02227045924349371</v>
+        <v>0.01441281340815507</v>
       </c>
       <c r="D66">
-        <v>0.1248208268495456</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1401212802017558</v>
+      </c>
+      <c r="E66">
+        <v>0.06307776053495845</v>
+      </c>
+      <c r="F66">
+        <v>0.0329742724698621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06325764894775615</v>
+        <v>0.05646163045347157</v>
       </c>
       <c r="C67">
-        <v>0.005616358268847769</v>
+        <v>0.0031278336243014</v>
       </c>
       <c r="D67">
-        <v>0.05409314777452869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05638946808747463</v>
+      </c>
+      <c r="E67">
+        <v>0.01714698007197304</v>
+      </c>
+      <c r="F67">
+        <v>-0.02953601010799119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070361086559974</v>
+        <v>0.1165845238895496</v>
       </c>
       <c r="C68">
-        <v>0.02286499407135854</v>
+        <v>0.03348721998346015</v>
       </c>
       <c r="D68">
-        <v>-0.2681755284566824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614966356857851</v>
+      </c>
+      <c r="E68">
+        <v>-0.08809021439470179</v>
+      </c>
+      <c r="F68">
+        <v>-0.002045515199604672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04022291325624968</v>
+        <v>0.03883903338102741</v>
       </c>
       <c r="C69">
-        <v>0.002114376952780393</v>
+        <v>0.001216775799539203</v>
       </c>
       <c r="D69">
-        <v>0.006623638458717078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008690909785000466</v>
+      </c>
+      <c r="E69">
+        <v>0.02388804170512416</v>
+      </c>
+      <c r="F69">
+        <v>0.0008098046102565858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06617821644778542</v>
+        <v>0.06664376329873541</v>
       </c>
       <c r="C70">
-        <v>-0.02476431621722181</v>
+        <v>-0.02711138426275532</v>
       </c>
       <c r="D70">
-        <v>-0.00559553528292321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02441866288112783</v>
+      </c>
+      <c r="E70">
+        <v>-0.02889790578938449</v>
+      </c>
+      <c r="F70">
+        <v>-0.1786969830641466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261050279601276</v>
+        <v>0.1367260576911183</v>
       </c>
       <c r="C71">
-        <v>0.02682169862995056</v>
+        <v>0.03803427136114176</v>
       </c>
       <c r="D71">
-        <v>-0.2845015004461899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.271926637703169</v>
+      </c>
+      <c r="E71">
+        <v>-0.09791925889703641</v>
+      </c>
+      <c r="F71">
+        <v>0.004033660450535059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382054230057738</v>
+        <v>0.1438052373973981</v>
       </c>
       <c r="C72">
-        <v>0.02796646061185304</v>
+        <v>0.02786464559241411</v>
       </c>
       <c r="D72">
-        <v>0.006088014093293168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004504680311524211</v>
+      </c>
+      <c r="E72">
+        <v>0.03636951501159882</v>
+      </c>
+      <c r="F72">
+        <v>0.03046672620668069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2078210114584072</v>
+        <v>0.2048615731285091</v>
       </c>
       <c r="C73">
-        <v>0.01748291383284507</v>
+        <v>0.01350321829396276</v>
       </c>
       <c r="D73">
-        <v>0.009952119305251132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01772294299915231</v>
+      </c>
+      <c r="E73">
+        <v>0.0663034034410887</v>
+      </c>
+      <c r="F73">
+        <v>0.03926489759308903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09399973817354372</v>
+        <v>0.09531653038647291</v>
       </c>
       <c r="C74">
-        <v>0.01433536480885811</v>
+        <v>0.01414584734796437</v>
       </c>
       <c r="D74">
-        <v>0.01938426241247284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01667325190065836</v>
+      </c>
+      <c r="E74">
+        <v>0.04358360781821589</v>
+      </c>
+      <c r="F74">
+        <v>0.05500265890006558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335209601915172</v>
+        <v>0.1268337544786334</v>
       </c>
       <c r="C75">
-        <v>0.03039437984947391</v>
+        <v>0.02912047888886064</v>
       </c>
       <c r="D75">
-        <v>0.0309662429484034</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02897737206953833</v>
+      </c>
+      <c r="E75">
+        <v>0.05684123057925829</v>
+      </c>
+      <c r="F75">
+        <v>0.02284854796767226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0826199843268822</v>
+        <v>0.09038185907618748</v>
       </c>
       <c r="C77">
-        <v>0.01502700934362989</v>
+        <v>0.008567988674229308</v>
       </c>
       <c r="D77">
-        <v>0.09988133926366094</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1144706874814427</v>
+      </c>
+      <c r="E77">
+        <v>0.04403149406143671</v>
+      </c>
+      <c r="F77">
+        <v>0.03358910712051692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09878997287697201</v>
+        <v>0.09964199702319662</v>
       </c>
       <c r="C78">
-        <v>0.04377285271647957</v>
+        <v>0.03838947317613316</v>
       </c>
       <c r="D78">
-        <v>0.1118975483017617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1136149824379548</v>
+      </c>
+      <c r="E78">
+        <v>0.07601999460480738</v>
+      </c>
+      <c r="F78">
+        <v>0.05179890566379036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1646862213976656</v>
+        <v>0.1630813761065509</v>
       </c>
       <c r="C79">
-        <v>0.02499427086715584</v>
+        <v>0.02408503369149777</v>
       </c>
       <c r="D79">
-        <v>0.01304893192334059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01298870313283667</v>
+      </c>
+      <c r="E79">
+        <v>0.04395720825737699</v>
+      </c>
+      <c r="F79">
+        <v>0.01192930692993608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08129446776079839</v>
+        <v>0.07935610374760563</v>
       </c>
       <c r="C80">
-        <v>0.001121045912719849</v>
+        <v>-0.0008452560891589727</v>
       </c>
       <c r="D80">
-        <v>0.04989088667246263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05447984619572996</v>
+      </c>
+      <c r="E80">
+        <v>0.0326488578424395</v>
+      </c>
+      <c r="F80">
+        <v>-0.02214069700239174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200850356988283</v>
+        <v>0.1175376756026075</v>
       </c>
       <c r="C81">
-        <v>0.03246101714825341</v>
+        <v>0.03264632949480758</v>
       </c>
       <c r="D81">
-        <v>0.02424096871710909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01433153815035729</v>
+      </c>
+      <c r="E81">
+        <v>0.05488208724079665</v>
+      </c>
+      <c r="F81">
+        <v>0.01898409375509499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658225697162921</v>
+        <v>0.1656362086724964</v>
       </c>
       <c r="C82">
-        <v>0.02582490060972816</v>
+        <v>0.02637301816493184</v>
       </c>
       <c r="D82">
-        <v>0.01371375666518769</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002941576697176627</v>
+      </c>
+      <c r="E82">
+        <v>0.02643095100051801</v>
+      </c>
+      <c r="F82">
+        <v>0.08141029016873298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06319364638144012</v>
+        <v>0.05731853106344739</v>
       </c>
       <c r="C83">
-        <v>0.005678645737320147</v>
+        <v>0.003184196426574728</v>
       </c>
       <c r="D83">
-        <v>0.04266226485585698</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04922077808140447</v>
+      </c>
+      <c r="E83">
+        <v>0.001481457950871796</v>
+      </c>
+      <c r="F83">
+        <v>-0.0305242817019278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06350005707351189</v>
+        <v>0.0574697578595505</v>
       </c>
       <c r="C84">
-        <v>0.01430388326461009</v>
+        <v>0.01105728000672695</v>
       </c>
       <c r="D84">
-        <v>0.06590188195464233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0721793653708708</v>
+      </c>
+      <c r="E84">
+        <v>0.01427863773942512</v>
+      </c>
+      <c r="F84">
+        <v>0.01313416012327239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1380049446359895</v>
+        <v>0.1345343022458055</v>
       </c>
       <c r="C85">
-        <v>0.02922777355803656</v>
+        <v>0.02914403113934364</v>
       </c>
       <c r="D85">
-        <v>0.01618642432365671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009333403337741073</v>
+      </c>
+      <c r="E85">
+        <v>0.03564951803832307</v>
+      </c>
+      <c r="F85">
+        <v>0.04664320103749393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012101376806032</v>
+        <v>0.09305025010038923</v>
       </c>
       <c r="C86">
-        <v>-0.002897976018714244</v>
+        <v>-0.005959299660814801</v>
       </c>
       <c r="D86">
-        <v>0.001946118819261169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04994079689416036</v>
+      </c>
+      <c r="E86">
+        <v>0.2379336776452196</v>
+      </c>
+      <c r="F86">
+        <v>-0.9031963569531974</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09986791857034361</v>
+        <v>0.09358102461626039</v>
       </c>
       <c r="C87">
-        <v>0.02829687720883283</v>
+        <v>0.01973008268252321</v>
       </c>
       <c r="D87">
-        <v>0.06997333894285795</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09508422120684075</v>
+      </c>
+      <c r="E87">
+        <v>-0.05203185037470928</v>
+      </c>
+      <c r="F87">
+        <v>0.04844172794343404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06004017682827462</v>
+        <v>0.06016888660937789</v>
       </c>
       <c r="C88">
-        <v>0.005302334318556516</v>
+        <v>0.002694059186101239</v>
       </c>
       <c r="D88">
-        <v>0.05443773151237307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04971670181068382</v>
+      </c>
+      <c r="E88">
+        <v>0.02391016371934105</v>
+      </c>
+      <c r="F88">
+        <v>0.01631207984350391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1180817991277057</v>
+        <v>0.1277003281558411</v>
       </c>
       <c r="C89">
-        <v>0.003873164505425346</v>
+        <v>0.01324575833325321</v>
       </c>
       <c r="D89">
-        <v>-0.2547500187128315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449580467967115</v>
+      </c>
+      <c r="E89">
+        <v>-0.09235271389972947</v>
+      </c>
+      <c r="F89">
+        <v>-0.01077682324234676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1369348685418899</v>
+        <v>0.1514711170892124</v>
       </c>
       <c r="C90">
-        <v>0.0233130833788376</v>
+        <v>0.03469229516703433</v>
       </c>
       <c r="D90">
-        <v>-0.2698933481929561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2687880649072505</v>
+      </c>
+      <c r="E90">
+        <v>-0.113394745625136</v>
+      </c>
+      <c r="F90">
+        <v>-0.01168054398520283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206956206205631</v>
+        <v>0.1210835780007668</v>
       </c>
       <c r="C91">
-        <v>0.02014549210055482</v>
+        <v>0.02077882397635037</v>
       </c>
       <c r="D91">
-        <v>-0.007799352277903602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01605924980088113</v>
+      </c>
+      <c r="E91">
+        <v>0.05464059503648778</v>
+      </c>
+      <c r="F91">
+        <v>-0.001277534148330972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1395096744045203</v>
+        <v>0.1476159416246483</v>
       </c>
       <c r="C92">
-        <v>0.01371723241177803</v>
+        <v>0.0253501479111918</v>
       </c>
       <c r="D92">
-        <v>-0.3048179507428312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2900823968239539</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025003532455601</v>
+      </c>
+      <c r="F92">
+        <v>-0.01918065444634712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1407188926516794</v>
+        <v>0.1525959834285325</v>
       </c>
       <c r="C93">
-        <v>0.01918960159162479</v>
+        <v>0.02953374929176421</v>
       </c>
       <c r="D93">
-        <v>-0.2697994169853076</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2650863559075486</v>
+      </c>
+      <c r="E93">
+        <v>-0.07563470321735735</v>
+      </c>
+      <c r="F93">
+        <v>-0.001583289486647841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341193625163991</v>
+        <v>0.1274032264669918</v>
       </c>
       <c r="C94">
-        <v>0.02733989657759915</v>
+        <v>0.02544390190518455</v>
       </c>
       <c r="D94">
-        <v>0.04449912417238303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04061034798417183</v>
+      </c>
+      <c r="E94">
+        <v>0.05653910582238179</v>
+      </c>
+      <c r="F94">
+        <v>0.03567679101032194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1234941914739726</v>
+        <v>0.1263514121652011</v>
       </c>
       <c r="C95">
-        <v>0.009466923488032819</v>
+        <v>0.003340348570794854</v>
       </c>
       <c r="D95">
-        <v>0.08589869201899498</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09846288322318893</v>
+      </c>
+      <c r="E95">
+        <v>0.05380695501441839</v>
+      </c>
+      <c r="F95">
+        <v>-0.002343221509624407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1207816042800196</v>
+        <v>0.1142236301852245</v>
       </c>
       <c r="C96">
-        <v>-0.9869667780704809</v>
+        <v>-0.9866345853103514</v>
       </c>
       <c r="D96">
-        <v>-0.01258640045456758</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05089623322830341</v>
+      </c>
+      <c r="E96">
+        <v>0.05137359484886385</v>
+      </c>
+      <c r="F96">
+        <v>0.04257323263334705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1941876218281502</v>
+        <v>0.1951279423001403</v>
       </c>
       <c r="C97">
-        <v>-0.005171685462467584</v>
+        <v>-0.005593233253042292</v>
       </c>
       <c r="D97">
-        <v>-0.0127664321589273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02001174418090768</v>
+      </c>
+      <c r="E97">
+        <v>0.02161637153209911</v>
+      </c>
+      <c r="F97">
+        <v>-0.09223003086643176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996913346255534</v>
+        <v>0.206611230876063</v>
       </c>
       <c r="C98">
-        <v>0.01191045821691717</v>
+        <v>0.007684136057489384</v>
       </c>
       <c r="D98">
-        <v>0.009336392761050069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01487187687981693</v>
+      </c>
+      <c r="E98">
+        <v>-0.07389337693332947</v>
+      </c>
+      <c r="F98">
+        <v>-0.0909700186607528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05573539758906041</v>
+        <v>0.05549709486338282</v>
       </c>
       <c r="C99">
-        <v>-0.002076709543709239</v>
+        <v>-0.004109089361622097</v>
       </c>
       <c r="D99">
-        <v>0.02671566422435132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03820389078892066</v>
+      </c>
+      <c r="E99">
+        <v>0.02131726715497183</v>
+      </c>
+      <c r="F99">
+        <v>0.00392641958719675</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1420287146015852</v>
+        <v>0.1285439094513603</v>
       </c>
       <c r="C100">
-        <v>-0.03797434599811208</v>
+        <v>-0.05141862535690696</v>
       </c>
       <c r="D100">
-        <v>0.4000623457555061</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3514750604849588</v>
+      </c>
+      <c r="E100">
+        <v>-0.8832996552005066</v>
+      </c>
+      <c r="F100">
+        <v>-0.1650140380739769</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02522328610917479</v>
+        <v>0.02848002493867748</v>
       </c>
       <c r="C101">
-        <v>0.009528551700825951</v>
+        <v>0.008882438629714818</v>
       </c>
       <c r="D101">
-        <v>0.02460012129122291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03057057589256803</v>
+      </c>
+      <c r="E101">
+        <v>0.01252988030308074</v>
+      </c>
+      <c r="F101">
+        <v>-0.01493907197076863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
